--- a/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61686585-A875-4484-A61F-1F350EFC90E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B591ED3-55EF-436C-8DFD-9F02594ED1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A27ACBC8-A683-4AA5-B826-0D99C13CCC95}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{635D1294-233B-4609-8890-69E70958D007}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="257">
-  <si>
-    <t>Población según la frecuencia de consumición de café o té en 2015 (Tasa respuesta: 99,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="260">
+  <si>
+    <t>Población según la frecuencia de consumo de café o té en 2015 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,736 +74,745 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1218,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C13FAE-439D-48CE-AC7A-0717AE280870}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9915A294-CF64-4BF1-BA23-F70EF89DAF8F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1477,16 +1486,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -1495,13 +1504,13 @@
         <v>5118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1510,13 +1519,13 @@
         <v>946</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1525,19 +1534,19 @@
         <v>6064</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>79</v>
@@ -1546,13 +1555,13 @@
         <v>81306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -1561,13 +1570,13 @@
         <v>90941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>172</v>
@@ -1576,13 +1585,13 @@
         <v>172248</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,13 +1606,13 @@
         <v>116546</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -1612,13 +1621,13 @@
         <v>113360</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>228</v>
@@ -1627,18 +1636,18 @@
         <v>229906</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1650,13 +1659,13 @@
         <v>90884</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -1665,13 +1674,13 @@
         <v>83738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -1680,13 +1689,13 @@
         <v>174623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,7 +1710,7 @@
         <v>10154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>70</v>
@@ -1716,7 +1725,7 @@
         <v>4640</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>72</v>
@@ -1785,16 +1794,16 @@
         <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>8</v>
@@ -1803,13 +1812,13 @@
         <v>8804</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -1818,13 +1827,13 @@
         <v>12008</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -1833,19 +1842,19 @@
         <v>20812</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>421</v>
@@ -1854,13 +1863,13 @@
         <v>434703</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -1869,13 +1878,13 @@
         <v>451235</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
@@ -1884,13 +1893,13 @@
         <v>885939</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,13 +1914,13 @@
         <v>557308</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>548</v>
@@ -1920,13 +1929,13 @@
         <v>556115</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1086</v>
@@ -1935,18 +1944,18 @@
         <v>1113424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1958,13 +1967,13 @@
         <v>176912</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -1973,13 +1982,13 @@
         <v>150976</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>313</v>
@@ -1988,13 +1997,13 @@
         <v>327889</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,7 +2018,7 @@
         <v>24593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>114</v>
@@ -2066,7 +2075,7 @@
         <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2075,13 +2084,13 @@
         <v>17278</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -2090,19 +2099,19 @@
         <v>41007</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>27</v>
@@ -2111,10 +2120,10 @@
         <v>30806</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>132</v>
@@ -2144,16 +2153,16 @@
         <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>712</v>
@@ -2162,13 +2171,13 @@
         <v>766390</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>769</v>
@@ -2177,13 +2186,13 @@
         <v>826461</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>1481</v>
@@ -2192,13 +2201,13 @@
         <v>1592851</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,13 +2222,13 @@
         <v>1022431</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>976</v>
@@ -2228,13 +2237,13 @@
         <v>1041932</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1927</v>
@@ -2243,18 +2252,18 @@
         <v>2064363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2266,13 +2275,13 @@
         <v>83000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -2281,13 +2290,13 @@
         <v>89663</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
@@ -2296,13 +2305,13 @@
         <v>172663</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2326,13 @@
         <v>4173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2332,13 +2341,13 @@
         <v>4893</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2347,13 +2356,13 @@
         <v>9066</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2377,13 @@
         <v>9842</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2383,13 +2392,13 @@
         <v>3187</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -2398,19 +2407,19 @@
         <v>13029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -2425,7 +2434,7 @@
         <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2437,10 +2446,10 @@
         <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2449,19 +2458,19 @@
         <v>21371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>593</v>
@@ -2470,13 +2479,13 @@
         <v>648559</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>628</v>
@@ -2485,13 +2494,13 @@
         <v>674290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -2500,13 +2509,13 @@
         <v>1322849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2530,13 @@
         <v>756866</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>733</v>
@@ -2536,13 +2545,13 @@
         <v>782112</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1427</v>
@@ -2551,18 +2560,18 @@
         <v>1538978</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2574,13 +2583,13 @@
         <v>107736</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>108</v>
@@ -2589,13 +2598,13 @@
         <v>116875</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="M28" s="7">
         <v>214</v>
@@ -2604,13 +2613,13 @@
         <v>224611</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2634,13 @@
         <v>17255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2640,13 +2649,13 @@
         <v>11907</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -2655,13 +2664,13 @@
         <v>29162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2685,13 @@
         <v>19756</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -2691,13 +2700,13 @@
         <v>21552</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>41</v>
@@ -2706,19 +2715,19 @@
         <v>41309</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>27</v>
@@ -2727,13 +2736,13 @@
         <v>26649</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -2742,13 +2751,13 @@
         <v>27747</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -2757,19 +2766,19 @@
         <v>54396</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>761</v>
@@ -2778,13 +2787,13 @@
         <v>766170</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>789</v>
@@ -2793,13 +2802,13 @@
         <v>861608</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>1550</v>
@@ -2808,13 +2817,13 @@
         <v>1627779</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2838,13 @@
         <v>937567</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>955</v>
@@ -2844,13 +2853,13 @@
         <v>1039689</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1887</v>
@@ -2859,13 +2868,13 @@
         <v>1977256</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2891,13 @@
         <v>475255</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>438</v>
@@ -2897,13 +2906,13 @@
         <v>455464</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>893</v>
@@ -2912,13 +2921,13 @@
         <v>930719</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2942,13 @@
         <v>64769</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -2948,13 +2957,13 @@
         <v>48260</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>111</v>
@@ -2963,13 +2972,13 @@
         <v>113029</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2993,13 @@
         <v>70897</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -2999,13 +3008,13 @@
         <v>53772</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="M36" s="7">
         <v>119</v>
@@ -3014,19 +3023,19 @@
         <v>124669</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>78</v>
@@ -3035,13 +3044,13 @@
         <v>82669</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -3050,13 +3059,13 @@
         <v>71177</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="M37" s="7">
         <v>145</v>
@@ -3065,19 +3074,19 @@
         <v>153846</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>2566</v>
@@ -3086,28 +3095,28 @@
         <v>2697129</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>2721</v>
       </c>
       <c r="I38" s="7">
-        <v>2904535</v>
+        <v>2904536</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M38" s="7">
         <v>5287</v>
@@ -3116,13 +3125,13 @@
         <v>5601664</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,28 +3146,28 @@
         <v>3390718</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>3327</v>
       </c>
       <c r="I39" s="7">
-        <v>3533208</v>
+        <v>3533209</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>6555</v>
@@ -3167,18 +3176,18 @@
         <v>6923926</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B591ED3-55EF-436C-8DFD-9F02594ED1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{491855A9-FE1A-49AC-B4CB-FAD622FE9D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{635D1294-233B-4609-8890-69E70958D007}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{213676A3-139B-4BFA-8079-955C72312BFA}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="260">
-  <si>
-    <t>Población según la frecuencia de consumo de café o té en 2015 (Tasa respuesta: 99,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="267">
+  <si>
+    <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -74,28 +74,28 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,10 +104,10 @@
     <t>7,37%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -125,7 +125,7 @@
     <t>1,82%</t>
   </si>
   <si>
-    <t>6,89%</t>
+    <t>6,91%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>4,12%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,655 +164,676 @@
     <t>4,39%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>2,59%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>80,85%</t>
+    <t>80,9%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9915A294-CF64-4BF1-BA23-F70EF89DAF8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EF9181-4312-4566-8808-AABC6251676E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1794,10 +1815,10 @@
         <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,10 +1833,10 @@
         <v>8804</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>87</v>
@@ -2051,10 +2072,10 @@
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2090,13 @@
         <v>23729</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2084,13 +2105,13 @@
         <v>17278</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -2099,13 +2120,13 @@
         <v>41007</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2141,13 @@
         <v>30806</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -2135,13 +2156,13 @@
         <v>20397</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -2150,13 +2171,13 @@
         <v>51203</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2192,13 @@
         <v>766390</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>769</v>
@@ -2186,13 +2207,13 @@
         <v>826461</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>1481</v>
@@ -2201,13 +2222,13 @@
         <v>1592851</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,7 +2284,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2275,13 +2296,13 @@
         <v>83000</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -2290,13 +2311,13 @@
         <v>89663</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>164</v>
@@ -2305,13 +2326,13 @@
         <v>172663</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2347,13 @@
         <v>4173</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2341,13 +2362,13 @@
         <v>4893</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -2356,13 +2377,13 @@
         <v>9066</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2398,13 @@
         <v>9842</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2392,13 +2413,13 @@
         <v>3187</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -2407,13 +2428,13 @@
         <v>13029</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2455,7 @@
         <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2443,13 +2464,13 @@
         <v>10079</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2458,13 +2479,13 @@
         <v>21371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2500,13 @@
         <v>648559</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>628</v>
@@ -2494,13 +2515,13 @@
         <v>674290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -2509,13 +2530,13 @@
         <v>1322849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,7 +2592,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2583,13 +2604,13 @@
         <v>107736</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>108</v>
@@ -2598,13 +2619,13 @@
         <v>116875</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>214</v>
@@ -2613,13 +2634,13 @@
         <v>224611</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2655,13 @@
         <v>17255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2649,13 +2670,13 @@
         <v>11907</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -2664,13 +2685,13 @@
         <v>29162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2706,13 @@
         <v>19756</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -2700,13 +2721,13 @@
         <v>21552</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="M30" s="7">
         <v>41</v>
@@ -2715,13 +2736,13 @@
         <v>41309</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2757,13 @@
         <v>26649</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -2751,13 +2772,13 @@
         <v>27747</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -2766,13 +2787,13 @@
         <v>54396</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2808,13 @@
         <v>766170</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>789</v>
@@ -2802,13 +2823,13 @@
         <v>861608</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>1550</v>
@@ -2817,13 +2838,13 @@
         <v>1627779</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2912,13 @@
         <v>475255</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>438</v>
@@ -2906,13 +2927,13 @@
         <v>455464</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>893</v>
@@ -2921,13 +2942,13 @@
         <v>930719</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2963,13 @@
         <v>64769</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -2957,13 +2978,13 @@
         <v>48260</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="M35" s="7">
         <v>111</v>
@@ -2975,10 +2996,10 @@
         <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3014,13 @@
         <v>70897</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -3008,13 +3029,13 @@
         <v>53772</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="M36" s="7">
         <v>119</v>
@@ -3023,13 +3044,13 @@
         <v>124669</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3065,13 @@
         <v>82669</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -3059,13 +3080,13 @@
         <v>71177</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="M37" s="7">
         <v>145</v>
@@ -3074,13 +3095,13 @@
         <v>153846</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,28 +3116,28 @@
         <v>2697129</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H38" s="7">
         <v>2721</v>
       </c>
       <c r="I38" s="7">
-        <v>2904536</v>
+        <v>2904535</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M38" s="7">
         <v>5287</v>
@@ -3125,13 +3146,13 @@
         <v>5601664</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3179,7 @@
         <v>3327</v>
       </c>
       <c r="I39" s="7">
-        <v>3533209</v>
+        <v>3533208</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>59</v>
@@ -3187,7 +3208,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{491855A9-FE1A-49AC-B4CB-FAD622FE9D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE23FA6-15BE-4E0F-8A5B-4F974AA9777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{213676A3-139B-4BFA-8079-955C72312BFA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{401E886A-DE5B-45BA-BBEC-1D64D47FBB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="257">
   <si>
     <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,10 +104,10 @@
     <t>7,37%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -122,718 +122,688 @@
     <t>3,74%</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1248,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EF9181-4312-4566-8808-AABC6251676E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A2AAC5-C9A1-4E51-BAAC-D49527CFB504}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1507,16 +1477,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
@@ -1525,13 +1495,13 @@
         <v>5118</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1540,13 +1510,13 @@
         <v>946</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1555,19 +1525,19 @@
         <v>6064</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>79</v>
@@ -1576,13 +1546,13 @@
         <v>81306</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -1591,13 +1561,13 @@
         <v>90941</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>172</v>
@@ -1606,13 +1576,13 @@
         <v>172248</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,13 +1597,13 @@
         <v>116546</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -1642,13 +1612,13 @@
         <v>113360</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>228</v>
@@ -1657,18 +1627,18 @@
         <v>229906</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1680,13 +1650,13 @@
         <v>90884</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -1695,13 +1665,13 @@
         <v>83738</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -1710,13 +1680,13 @@
         <v>174623</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,7 +1701,7 @@
         <v>10154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>70</v>
@@ -1746,7 +1716,7 @@
         <v>4640</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>72</v>
@@ -1824,7 +1794,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>8</v>
@@ -1836,10 +1806,10 @@
         <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -1848,13 +1818,13 @@
         <v>12008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -1863,19 +1833,19 @@
         <v>20812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>421</v>
@@ -1884,13 +1854,13 @@
         <v>434703</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>442</v>
@@ -1899,13 +1869,13 @@
         <v>451235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>863</v>
@@ -1914,13 +1884,13 @@
         <v>885939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1905,13 @@
         <v>557308</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>548</v>
@@ -1950,13 +1920,13 @@
         <v>556115</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1086</v>
@@ -1965,18 +1935,18 @@
         <v>1113424</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1988,13 +1958,13 @@
         <v>176912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -2003,13 +1973,13 @@
         <v>150976</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>313</v>
@@ -2018,13 +1988,13 @@
         <v>327889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2039,7 +2009,7 @@
         <v>24593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>114</v>
@@ -2072,10 +2042,10 @@
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2060,13 @@
         <v>23729</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2105,13 +2075,13 @@
         <v>17278</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -2120,19 +2090,19 @@
         <v>41007</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>27</v>
@@ -2141,13 +2111,13 @@
         <v>30806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -2156,13 +2126,13 @@
         <v>20397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -2171,19 +2141,19 @@
         <v>51203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>712</v>
@@ -2192,13 +2162,13 @@
         <v>766390</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>769</v>
@@ -2207,13 +2177,13 @@
         <v>826461</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>1481</v>
@@ -2222,13 +2192,13 @@
         <v>1592851</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2213,13 @@
         <v>1022431</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>976</v>
@@ -2258,13 +2228,13 @@
         <v>1041932</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>1927</v>
@@ -2273,18 +2243,18 @@
         <v>2064363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2296,13 +2266,13 @@
         <v>83000</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>87</v>
@@ -2440,7 +2410,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -2455,7 +2425,7 @@
         <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2464,13 +2434,13 @@
         <v>10079</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2479,19 +2449,19 @@
         <v>21371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>593</v>
@@ -2500,13 +2470,13 @@
         <v>648559</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>628</v>
@@ -2515,13 +2485,13 @@
         <v>674290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -2530,13 +2500,13 @@
         <v>1322849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2521,13 @@
         <v>756866</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>733</v>
@@ -2566,13 +2536,13 @@
         <v>782112</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1427</v>
@@ -2581,18 +2551,18 @@
         <v>1538978</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2604,13 +2574,13 @@
         <v>107736</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>108</v>
@@ -2619,13 +2589,13 @@
         <v>116875</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>214</v>
@@ -2634,13 +2604,13 @@
         <v>224611</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2625,13 @@
         <v>17255</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2670,13 +2640,13 @@
         <v>11907</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -2685,13 +2655,13 @@
         <v>29162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2676,13 @@
         <v>19756</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -2721,13 +2691,13 @@
         <v>21552</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>41</v>
@@ -2736,19 +2706,19 @@
         <v>41309</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>27</v>
@@ -2757,13 +2727,13 @@
         <v>26649</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -2772,13 +2742,13 @@
         <v>27747</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>53</v>
@@ -2787,19 +2757,19 @@
         <v>54396</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>761</v>
@@ -2808,13 +2778,13 @@
         <v>766170</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>789</v>
@@ -2823,13 +2793,13 @@
         <v>861608</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>1550</v>
@@ -2838,13 +2808,13 @@
         <v>1627779</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2829,13 @@
         <v>937567</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>955</v>
@@ -2874,13 +2844,13 @@
         <v>1039689</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>1887</v>
@@ -2889,13 +2859,13 @@
         <v>1977256</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2882,13 @@
         <v>475255</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>438</v>
@@ -2927,13 +2897,13 @@
         <v>455464</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>893</v>
@@ -2942,13 +2912,13 @@
         <v>930719</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2933,13 @@
         <v>64769</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H35" s="7">
         <v>48</v>
@@ -2978,13 +2948,13 @@
         <v>48260</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>111</v>
@@ -2993,13 +2963,13 @@
         <v>113029</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +2984,13 @@
         <v>70897</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>53</v>
@@ -3029,13 +2999,13 @@
         <v>53772</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>119</v>
@@ -3044,19 +3014,19 @@
         <v>124669</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>78</v>
@@ -3065,13 +3035,13 @@
         <v>82669</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -3080,13 +3050,13 @@
         <v>71177</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>145</v>
@@ -3095,19 +3065,19 @@
         <v>153846</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>2566</v>
@@ -3116,13 +3086,13 @@
         <v>2697129</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H38" s="7">
         <v>2721</v>
@@ -3131,13 +3101,13 @@
         <v>2904535</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="M38" s="7">
         <v>5287</v>
@@ -3146,13 +3116,13 @@
         <v>5601664</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3137,13 @@
         <v>3390718</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>3327</v>
@@ -3182,13 +3152,13 @@
         <v>3533208</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>6555</v>
@@ -3197,18 +3167,18 @@
         <v>6923926</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE23FA6-15BE-4E0F-8A5B-4F974AA9777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06552098-DAE9-4F12-8DD8-1C95A02BAF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{401E886A-DE5B-45BA-BBEC-1D64D47FBB5F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{303A839D-219A-43E3-BCDB-B74078CA102C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="216">
   <si>
     <t>Población según la frecuencia de consumo de café o té en 2016 (Tasa respuesta: 99,79%)</t>
   </si>
@@ -65,709 +65,586 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
   </si>
   <si>
     <t>2,56%</t>
@@ -1218,8 +1095,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A2AAC5-C9A1-4E51-BAAC-D49527CFB504}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012EC213-2603-42F5-9A6D-8A3DD61FB22A}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1336,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7">
-        <v>16722</v>
+        <v>107606</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1351,10 +1228,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>14212</v>
+        <v>97951</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1366,10 +1243,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="N4" s="7">
-        <v>30934</v>
+        <v>205557</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1387,10 +1264,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>8594</v>
+        <v>18747</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1402,10 +1279,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4640</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1417,10 +1294,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>8594</v>
+        <v>23387</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1438,10 +1315,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>4806</v>
+        <v>17570</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1453,10 +1330,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>7261</v>
+        <v>11755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1468,121 +1345,121 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>12067</v>
+        <v>29325</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>5118</v>
+        <v>13922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>946</v>
+        <v>12953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>6064</v>
+        <v>26875</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="D8" s="7">
-        <v>81306</v>
+        <v>516009</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>93</v>
+        <v>535</v>
       </c>
       <c r="I8" s="7">
-        <v>90941</v>
+        <v>542176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>172</v>
+        <v>1035</v>
       </c>
       <c r="N8" s="7">
-        <v>172248</v>
+        <v>1058186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,102 +1468,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>116546</v>
+        <v>673854</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>115</v>
+        <v>663</v>
       </c>
       <c r="I9" s="7">
-        <v>113360</v>
+        <v>669475</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>228</v>
+        <v>1314</v>
       </c>
       <c r="N9" s="7">
-        <v>229906</v>
+        <v>1343330</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D10" s="7">
-        <v>90884</v>
+        <v>176912</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="I10" s="7">
-        <v>83738</v>
+        <v>150976</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c r="N10" s="7">
-        <v>174623</v>
+        <v>327889</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,49 +1572,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>10154</v>
+        <v>24593</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>4640</v>
+        <v>26820</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N11" s="7">
-        <v>14794</v>
+        <v>51413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,151 +1623,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>12763</v>
+        <v>23729</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>4494</v>
+        <v>17278</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N12" s="7">
-        <v>17258</v>
+        <v>41007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>8804</v>
+        <v>30806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>12008</v>
+        <v>20397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>20812</v>
+        <v>51203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>421</v>
+        <v>712</v>
       </c>
       <c r="D14" s="7">
-        <v>434703</v>
+        <v>766390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
-        <v>442</v>
+        <v>769</v>
       </c>
       <c r="I14" s="7">
-        <v>451235</v>
+        <v>826461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
-        <v>863</v>
+        <v>1481</v>
       </c>
       <c r="N14" s="7">
-        <v>885939</v>
+        <v>1592851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,102 +1776,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>538</v>
+        <v>951</v>
       </c>
       <c r="D15" s="7">
-        <v>557308</v>
+        <v>1022431</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>548</v>
+        <v>976</v>
       </c>
       <c r="I15" s="7">
-        <v>556115</v>
+        <v>1041932</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>1086</v>
+        <v>1927</v>
       </c>
       <c r="N15" s="7">
-        <v>1113424</v>
+        <v>2064363</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>176912</v>
+        <v>83000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>150976</v>
+        <v>89663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>313</v>
+        <v>164</v>
       </c>
       <c r="N16" s="7">
-        <v>327889</v>
+        <v>172663</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,49 +1880,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>24593</v>
+        <v>4173</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>26820</v>
+        <v>4893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>51413</v>
+        <v>9066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,151 +1931,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>23729</v>
+        <v>9842</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>17278</v>
+        <v>3187</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>41007</v>
+        <v>13029</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>30806</v>
+        <v>11291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
-        <v>20397</v>
+        <v>10079</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>51203</v>
+        <v>21371</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>712</v>
+        <v>593</v>
       </c>
       <c r="D20" s="7">
-        <v>766390</v>
+        <v>648558</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
-        <v>769</v>
+        <v>628</v>
       </c>
       <c r="I20" s="7">
-        <v>826461</v>
+        <v>674290</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
-        <v>1481</v>
+        <v>1221</v>
       </c>
       <c r="N20" s="7">
-        <v>1592851</v>
+        <v>1322849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,102 +2084,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>951</v>
+        <v>694</v>
       </c>
       <c r="D21" s="7">
-        <v>1022431</v>
+        <v>756865</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>976</v>
+        <v>733</v>
       </c>
       <c r="I21" s="7">
-        <v>1041932</v>
+        <v>782112</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>1927</v>
+        <v>1427</v>
       </c>
       <c r="N21" s="7">
-        <v>2064363</v>
+        <v>1538978</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D22" s="7">
-        <v>83000</v>
+        <v>107736</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="I22" s="7">
-        <v>89663</v>
+        <v>116875</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="N22" s="7">
-        <v>172663</v>
+        <v>224611</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,25 +2188,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>4173</v>
+        <v>17255</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>158</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
-        <v>4893</v>
+        <v>11907</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>159</v>
@@ -2341,19 +2218,19 @@
         <v>161</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N23" s="7">
-        <v>9066</v>
+        <v>29162</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,151 +2239,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>9842</v>
+        <v>19756</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>21</v>
+      </c>
+      <c r="I24" s="7">
+        <v>21552</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="7">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3187</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>41</v>
+      </c>
+      <c r="N24" s="7">
+        <v>41309</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M24" s="7">
-        <v>12</v>
-      </c>
-      <c r="N24" s="7">
-        <v>13029</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>11292</v>
+        <v>26649</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="7">
+        <v>26</v>
+      </c>
+      <c r="I25" s="7">
+        <v>27747</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M25" s="7">
+        <v>53</v>
+      </c>
+      <c r="N25" s="7">
+        <v>54396</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="7">
-        <v>10</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10079</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="7">
-        <v>21</v>
-      </c>
-      <c r="N25" s="7">
-        <v>21371</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>593</v>
+        <v>761</v>
       </c>
       <c r="D26" s="7">
-        <v>648559</v>
+        <v>766170</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="7">
+        <v>789</v>
+      </c>
+      <c r="I26" s="7">
+        <v>861608</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1550</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1627779</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="7">
-        <v>628</v>
-      </c>
-      <c r="I26" s="7">
-        <v>674290</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1221</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1322849</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,102 +2392,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>694</v>
+        <v>932</v>
       </c>
       <c r="D27" s="7">
-        <v>756866</v>
+        <v>937567</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>733</v>
+        <v>955</v>
       </c>
       <c r="I27" s="7">
-        <v>782112</v>
+        <v>1039689</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1427</v>
+        <v>1887</v>
       </c>
       <c r="N27" s="7">
-        <v>1538978</v>
+        <v>1977256</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>106</v>
+        <v>455</v>
       </c>
       <c r="D28" s="7">
-        <v>107736</v>
+        <v>475255</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" s="7">
+        <v>438</v>
+      </c>
+      <c r="I28" s="7">
+        <v>455464</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>893</v>
+      </c>
+      <c r="N28" s="7">
+        <v>930719</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="7">
-        <v>108</v>
-      </c>
-      <c r="I28" s="7">
-        <v>116875</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M28" s="7">
-        <v>214</v>
-      </c>
-      <c r="N28" s="7">
-        <v>224611</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,49 +2496,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D29" s="7">
-        <v>17255</v>
+        <v>64769</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I29" s="7">
-        <v>11907</v>
+        <v>48260</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="N29" s="7">
-        <v>29162</v>
+        <v>113029</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,151 +2547,151 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D30" s="7">
-        <v>19756</v>
+        <v>70897</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="H30" s="7">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I30" s="7">
-        <v>21552</v>
+        <v>53772</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="N30" s="7">
-        <v>41309</v>
+        <v>124669</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D31" s="7">
-        <v>26649</v>
+        <v>82669</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="H31" s="7">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I31" s="7">
-        <v>27747</v>
+        <v>71177</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="N31" s="7">
-        <v>54396</v>
+        <v>153846</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>761</v>
+        <v>2566</v>
       </c>
       <c r="D32" s="7">
-        <v>766170</v>
+        <v>2697129</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
-        <v>789</v>
+        <v>2721</v>
       </c>
       <c r="I32" s="7">
-        <v>861608</v>
+        <v>2904536</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
-        <v>1550</v>
+        <v>5287</v>
       </c>
       <c r="N32" s="7">
-        <v>1627779</v>
+        <v>5601664</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,370 +2700,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>932</v>
+        <v>3228</v>
       </c>
       <c r="D33" s="7">
-        <v>937567</v>
+        <v>3390718</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
-        <v>955</v>
+        <v>3327</v>
       </c>
       <c r="I33" s="7">
-        <v>1039689</v>
+        <v>3533209</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>1887</v>
+        <v>6555</v>
       </c>
       <c r="N33" s="7">
-        <v>1977256</v>
+        <v>6923926</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>455</v>
-      </c>
-      <c r="D34" s="7">
-        <v>475255</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="7">
-        <v>438</v>
-      </c>
-      <c r="I34" s="7">
-        <v>455464</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M34" s="7">
-        <v>893</v>
-      </c>
-      <c r="N34" s="7">
-        <v>930719</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>63</v>
-      </c>
-      <c r="D35" s="7">
-        <v>64769</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H35" s="7">
-        <v>48</v>
-      </c>
-      <c r="I35" s="7">
-        <v>48260</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M35" s="7">
-        <v>111</v>
-      </c>
-      <c r="N35" s="7">
-        <v>113029</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>66</v>
-      </c>
-      <c r="D36" s="7">
-        <v>70897</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H36" s="7">
-        <v>53</v>
-      </c>
-      <c r="I36" s="7">
-        <v>53772</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M36" s="7">
-        <v>119</v>
-      </c>
-      <c r="N36" s="7">
-        <v>124669</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="7">
-        <v>78</v>
-      </c>
-      <c r="D37" s="7">
-        <v>82669</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H37" s="7">
-        <v>67</v>
-      </c>
-      <c r="I37" s="7">
-        <v>71177</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M37" s="7">
-        <v>145</v>
-      </c>
-      <c r="N37" s="7">
-        <v>153846</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2566</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2697129</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H38" s="7">
-        <v>2721</v>
-      </c>
-      <c r="I38" s="7">
-        <v>2904535</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M38" s="7">
-        <v>5287</v>
-      </c>
-      <c r="N38" s="7">
-        <v>5601664</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3228</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3390718</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="7">
-        <v>3327</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3533208</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M39" s="7">
-        <v>6555</v>
-      </c>
-      <c r="N39" s="7">
-        <v>6923926</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>256</v>
+      <c r="A34" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
